--- a/swe-iot/docs/it002/BurnDownChart.xlsx
+++ b/swe-iot/docs/it002/BurnDownChart.xlsx
@@ -356,6 +356,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -365,7 +366,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40 % - Akzent2" xfId="1" builtinId="35"/>
@@ -499,6 +499,7 @@
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -536,20 +537,53 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 1'!$C$2:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Initial 
+Estimate 100 80 60 40 20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="282927520"/>
-        <c:axId val="282925952"/>
+        <c:axId val="281456296"/>
+        <c:axId val="281454728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="282927520"/>
+        <c:axId val="281456296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,7 +610,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282925952"/>
+        <c:crossAx val="281454728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -584,13 +618,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="282925952"/>
+        <c:axId val="281454728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>ZEIT</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> in %</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -612,21 +670,25 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282927520"/>
+        <c:crossAx val="281456296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.8994386340243179"/>
           <c:y val="0.52527075812274371"/>
-          <c:w val="9.157307766768509E-2"/>
-          <c:h val="5.2346570397111915E-2"/>
+          <c:w val="7.4621088724036139E-2"/>
+          <c:h val="4.7896253462620671E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -699,8 +761,8 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1013,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1035,33 +1097,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
     </row>
     <row r="2" spans="1:23" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1189,7 +1251,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="1"/>
